--- a/data/trans_dic/P15D$ingresado-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.09743665400514025</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1695443094378524</v>
+        <v>0.1695443094378523</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06436356202254953</v>
@@ -709,37 +709,37 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.04712785569485013</v>
+        <v>0.05322833147155707</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02481322516771717</v>
+        <v>0.02474068619158074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08038207098894237</v>
+        <v>0.08584662579945772</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02069457366091906</v>
+        <v>0.02204199110103063</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06121475359555884</v>
+        <v>0.05127456982376583</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08588966248009998</v>
+        <v>0.08727722903341043</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0552142528305762</v>
+        <v>0.0560199107169566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06107348208206755</v>
+        <v>0.06396913360453643</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0994861072895904</v>
+        <v>0.1036443445323082</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.2142495558336034</v>
+        <v>0.2285523454031615</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2212168342678788</v>
+        <v>0.2192751592353504</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2941196788175778</v>
+        <v>0.3138217263384979</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2699034130707912</v>
+        <v>0.3288658860696373</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1895771994324086</v>
+        <v>0.1915126690530612</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2835852965631371</v>
+        <v>0.269238638737281</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2353036401973879</v>
+        <v>0.2330299196218492</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.130646596321038</v>
+        <v>0.1309306744751536</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.16804379942721</v>
+        <v>0.1756781287614095</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2122399677281629</v>
+        <v>0.2023076072102506</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2330830671356553</v>
+        <v>0.2349329856211047</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.1524657994625282</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1626367364254364</v>
+        <v>0.1626367364254363</v>
       </c>
     </row>
     <row r="8">
@@ -840,38 +840,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08249273657807528</v>
+        <v>0.07939509291701802</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01358858512375522</v>
+        <v>0.01234047729833742</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0737286296475287</v>
+        <v>0.07425944986360802</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09994747528725105</v>
+        <v>0.1014381533112367</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.05783492911053872</v>
+        <v>0.05680548586166057</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07115735360694249</v>
+        <v>0.07300777822804012</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05546958835056937</v>
+        <v>0.05655462876591916</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04531198016163201</v>
+        <v>0.04456367390399983</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04249226774246843</v>
+        <v>0.04260800460115188</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09248288089149084</v>
+        <v>0.09086486107395016</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09910980824541413</v>
+        <v>0.09414623813810891</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.340261384807181</v>
+        <v>0.3510585836538161</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1285404246630385</v>
+        <v>0.1286154506491222</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2774487941289738</v>
+        <v>0.2685002347970404</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3308886227196076</v>
+        <v>0.3334049964047816</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.2224779396435568</v>
+        <v>0.2120251222285412</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3075315716002937</v>
+        <v>0.3029258712348544</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.331461543391729</v>
+        <v>0.3117575164252552</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2099664263431115</v>
+        <v>0.2082629179999055</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1341731742736547</v>
+        <v>0.1436222479678481</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2442286706041626</v>
+        <v>0.2566855305001718</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2685054370944542</v>
+        <v>0.2645155915970834</v>
       </c>
     </row>
     <row r="10">
@@ -949,7 +949,7 @@
         <v>0.06692724424994551</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08335149880998313</v>
+        <v>0.08335149880998316</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1543800295494138</v>
@@ -972,40 +972,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08325327519644365</v>
+        <v>0.0864320964143576</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05422342595428332</v>
+        <v>0.05737102940124467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02791586846559554</v>
+        <v>0.02742757765959465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06550029411784682</v>
+        <v>0.06688514426085061</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03512775008196932</v>
+        <v>0.03457530039108002</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03326297532889654</v>
+        <v>0.03312767675605875</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06262601475222905</v>
+        <v>0.07461124034112407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05932290707603872</v>
+        <v>0.06483982249881282</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03101218496936927</v>
+        <v>0.03091439363592253</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05913717224640838</v>
+        <v>0.06578354461952113</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4723163258587278</v>
+        <v>0.4583681748600379</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2485772407039984</v>
+        <v>0.2484649355629037</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2529276386759493</v>
+        <v>0.2424832326794564</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3550702658285124</v>
+        <v>0.3473749748749911</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2332633667491663</v>
+        <v>0.2397425617133905</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1876866250949552</v>
+        <v>0.1934467695768452</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2374293534371076</v>
+        <v>0.206510966868374</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1728360283353069</v>
+        <v>0.1888716420369426</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2809650557003401</v>
+        <v>0.2916328083324286</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.181840773409554</v>
+        <v>0.1809561567821611</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1692224110291569</v>
+        <v>0.1815907697713949</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1998070589259667</v>
+        <v>0.2039539457978322</v>
       </c>
     </row>
     <row r="13">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02486773710031193</v>
+        <v>0.02602189022916261</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01165076583847517</v>
+        <v>0.01196395141794816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03049902280799011</v>
+        <v>0.03061586950991224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05465423530541599</v>
+        <v>0.05484965740355278</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01773842085152667</v>
+        <v>0.01754249652432151</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06149428722482677</v>
+        <v>0.06238201023921769</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03071040189792574</v>
+        <v>0.03355873583211002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01808608435769294</v>
+        <v>0.01763488972179944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03672618148666635</v>
+        <v>0.03816464845849345</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07270687671364283</v>
+        <v>0.07299661019933008</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2485855665642973</v>
+        <v>0.2572814605291046</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1490196147711596</v>
+        <v>0.14562156043919</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1822740674879142</v>
+        <v>0.1854674418534009</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2403630134173964</v>
+        <v>0.2185750074443132</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2938910812813499</v>
+        <v>0.3427600528809743</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08625119624511855</v>
+        <v>0.102006576476309</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1906795546380152</v>
+        <v>0.1815890690485131</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1749752105976232</v>
+        <v>0.1818570426221941</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2034350386645349</v>
+        <v>0.2135492544610251</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09359296072502292</v>
+        <v>0.08842320912943806</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1405324408125062</v>
+        <v>0.1497851841091573</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1698676670250094</v>
+        <v>0.1715945033288268</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.1120307116734854</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1628787115470358</v>
+        <v>0.1628787115470359</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05394492976196631</v>
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08150827468456871</v>
+        <v>0.08172693928123792</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05362065584479793</v>
+        <v>0.05387923259038953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07249023741365046</v>
+        <v>0.07107788922375817</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1160517388288644</v>
+        <v>0.1172636391142142</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07945209617903187</v>
+        <v>0.08397043968260159</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06372169424785272</v>
+        <v>0.06251196491602909</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05801759224057974</v>
+        <v>0.05969507980994264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08150899384747058</v>
+        <v>0.07938486709833006</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1089846622006456</v>
+        <v>0.1080821222570363</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2111226384653651</v>
+        <v>0.215573056269215</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1201999321074332</v>
+        <v>0.1198929040208837</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1599348070090502</v>
+        <v>0.1666397428475671</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2269383484211031</v>
+        <v>0.2310565377963148</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.168345653875251</v>
+        <v>0.1685264713670262</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1509301942085568</v>
+        <v>0.1501177379075172</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1056439536739801</v>
+        <v>0.1073111036069275</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1491415700738546</v>
+        <v>0.1479370194448698</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1743550545165658</v>
+        <v>0.1742723104973218</v>
       </c>
     </row>
     <row r="19">
@@ -1593,37 +1593,37 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>2782</v>
+        <v>3142</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3994</v>
+        <v>4266</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1086</v>
+        <v>1157</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2980</v>
+        <v>2496</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4030</v>
+        <v>4095</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6156</v>
+        <v>6246</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5514</v>
+        <v>5775</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9612</v>
+        <v>10013</v>
       </c>
     </row>
     <row r="7">
@@ -1635,37 +1635,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>12645</v>
+        <v>13490</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9204</v>
+        <v>9123</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14615</v>
+        <v>15594</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4283</v>
+        <v>5218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9948</v>
+        <v>10050</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13804</v>
+        <v>13105</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11041</v>
+        <v>10934</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5049</v>
+        <v>5060</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>18737</v>
+        <v>19588</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>19162</v>
+        <v>18265</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22519</v>
+        <v>22697</v>
       </c>
     </row>
     <row r="8">
@@ -1768,38 +1768,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3529</v>
+        <v>3397</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1075</v>
+        <v>976</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4459</v>
+        <v>4491</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7477</v>
+        <v>7589</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>4195</v>
+        <v>4121</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3374</v>
+        <v>3461</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3484</v>
+        <v>3552</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3304</v>
+        <v>3249</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>6443</v>
+        <v>6460</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9978</v>
+        <v>9803</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13639</v>
+        <v>12956</v>
       </c>
     </row>
     <row r="11">
@@ -1810,38 +1810,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14556</v>
+        <v>15018</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10165</v>
+        <v>10171</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16779</v>
+        <v>16238</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24755</v>
+        <v>24943</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>16138</v>
+        <v>15380</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14581</v>
+        <v>14362</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20817</v>
+        <v>19580</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15310</v>
+        <v>15185</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>20343</v>
+        <v>21776</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>26349</v>
+        <v>27693</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36951</v>
+        <v>36402</v>
       </c>
     </row>
     <row r="12">
@@ -1944,40 +1944,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1982</v>
+        <v>2058</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3116</v>
+        <v>3297</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2160</v>
+        <v>2205</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2004</v>
+        <v>1972</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3001</v>
+        <v>3575</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6793</v>
+        <v>7425</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4876</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="15">
@@ -1988,40 +1988,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11244</v>
+        <v>10912</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14284</v>
+        <v>14277</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9274</v>
+        <v>8891</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11707</v>
+        <v>11454</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5625</v>
+        <v>5781</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10707</v>
+        <v>11035</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7494</v>
+        <v>6518</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8552</v>
+        <v>9346</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13464</v>
+        <v>13975</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20822</v>
+        <v>20721</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11546</v>
+        <v>12389</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16474</v>
+        <v>16816</v>
       </c>
     </row>
     <row r="16">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>838</v>
+        <v>877</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1028</v>
+        <v>1055</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3473</v>
+        <v>3485</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2142,22 +2142,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4487</v>
+        <v>4552</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1763</v>
+        <v>1926</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2903</v>
+        <v>2830</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4536</v>
+        <v>4713</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9926</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="19">
@@ -2168,40 +2168,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8380</v>
+        <v>8673</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13145</v>
+        <v>12845</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11098</v>
+        <v>11292</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15274</v>
+        <v>13890</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6962</v>
+        <v>8120</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6235</v>
+        <v>7373</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11940</v>
+        <v>11371</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12768</v>
+        <v>13271</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11677</v>
+        <v>12258</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>15021</v>
+        <v>14191</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>17356</v>
+        <v>18499</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>23190</v>
+        <v>23426</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10032</v>
+        <v>10059</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15216</v>
+        <v>15289</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14472</v>
+        <v>14190</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25650</v>
+        <v>25918</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>18447</v>
+        <v>19496</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13820</v>
+        <v>13558</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>31220</v>
+        <v>32123</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>31780</v>
+        <v>30952</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>49392</v>
+        <v>48983</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25984</v>
+        <v>26532</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>34109</v>
+        <v>34022</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31928</v>
+        <v>33267</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>50159</v>
+        <v>51069</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>39086</v>
+        <v>39128</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32734</v>
+        <v>32558</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>56848</v>
+        <v>57745</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>58150</v>
+        <v>57681</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>79018</v>
+        <v>78981</v>
       </c>
     </row>
     <row r="24">
